--- a/data_excel/191.xlsx
+++ b/data_excel/191.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,9 +48,6 @@
     <t>剩</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -160,6 +157,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -555,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -564,10 +565,10 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -575,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -584,10 +585,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -595,95 +596,95 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -694,92 +695,92 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -790,103 +791,103 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/191.xlsx
+++ b/data_excel/191.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>草地</t>
   </si>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +547,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -731,7 +735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -742,12 +746,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
